--- a/biology/Biochimie/GSTO1/GSTO1.xlsx
+++ b/biology/Biochimie/GSTO1/GSTO1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La protéine GSTO1, ou glutathion S-transférase oméga 1, est une oxydoréductase et une transférase, codée chez l'homme par le gène GSTO1, situé sur le chromosome 10[1],[3]. Elle est exprimée dans le cytoplasme des cellules de tous les types de tissus, notamment dans le foie, les muscles squelettiques et le cœur[4].
-L'autre paralogue de cette enzyme chez l'homme est la glutathion S-transférase oméga 2, exprimée également dans tous les tissus, avec cependant une prédilection pour les testicules[4]. Ces enzymes sont présentes chez les mammifères, les insectes et les vers, chez qui elles réduisent l'acide déshydroascorbique et l'arséniate de méthyle CH3AsO3 à l'aide de glutathion. Elles jouent par conséquent un rôle important dans le recyclage de la vitamine C et dans la métabolisation des composés arséniés, et interviennent peut-être dans le cycle glutathion-ascorbate du métabolisme antioxydant[4].
+La protéine GSTO1, ou glutathion S-transférase oméga 1, est une oxydoréductase et une transférase, codée chez l'homme par le gène GSTO1, situé sur le chromosome 10,. Elle est exprimée dans le cytoplasme des cellules de tous les types de tissus, notamment dans le foie, les muscles squelettiques et le cœur.
+L'autre paralogue de cette enzyme chez l'homme est la glutathion S-transférase oméga 2, exprimée également dans tous les tissus, avec cependant une prédilection pour les testicules. Ces enzymes sont présentes chez les mammifères, les insectes et les vers, chez qui elles réduisent l'acide déshydroascorbique et l'arséniate de méthyle CH3AsO3 à l'aide de glutathion. Elles jouent par conséquent un rôle important dans le recyclage de la vitamine C et dans la métabolisation des composés arséniés, et interviennent peut-être dans le cycle glutathion-ascorbate du métabolisme antioxydant.
 </t>
         </is>
       </c>
